--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2371.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2371.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.870004325899317</v>
+        <v>0.9810446500778198</v>
       </c>
       <c r="B1">
-        <v>1.61904308301669</v>
+        <v>1.95371150970459</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.22498893737793</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.384364247322083</v>
       </c>
       <c r="E1">
-        <v>1.193640821861079</v>
+        <v>0.8146126270294189</v>
       </c>
     </row>
   </sheetData>
